--- a/Jogos_do_Dia/2023-09-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -688,13 +688,13 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I2">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="J2">
         <v>1.09</v>
@@ -709,10 +709,10 @@
         <v>2.45</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O2">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P2">
         <v>1.56</v>
@@ -795,13 +795,13 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -816,10 +816,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1009,13 +1009,13 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="H5">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I5">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1030,10 +1030,10 @@
         <v>3.1</v>
       </c>
       <c r="N5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O5">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1330,13 +1330,13 @@
         <v>59</v>
       </c>
       <c r="G8">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H8">
-        <v>3.6</v>
+        <v>3.82</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>4.31</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>0</v>

--- a/Jogos_do_Dia/2023-09-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -133,7 +133,7 @@
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
+    <t>07:00:00</t>
   </si>
   <si>
     <t>12:30:00</t>
@@ -154,6 +154,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>Universitatea Cluj</t>
+  </si>
+  <si>
     <t>Botoşani</t>
   </si>
   <si>
@@ -172,7 +175,7 @@
     <t>Unión Santa Fe</t>
   </si>
   <si>
-    <t>Olimpia</t>
+    <t>CSM Iaşi</t>
   </si>
   <si>
     <t>Hermannstadt</t>
@@ -191,9 +194,6 @@
   </si>
   <si>
     <t>San Lorenzo</t>
-  </si>
-  <si>
-    <t>Sportivo Ameliano</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
         <v>45173</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -688,105 +688,105 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>2.75</v>
+        <v>1.93</v>
       </c>
       <c r="H2">
-        <v>2.85</v>
+        <v>3.21</v>
       </c>
       <c r="I2">
-        <v>2.45</v>
+        <v>3.11</v>
       </c>
       <c r="J2">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K2">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="L2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M2">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N2">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="P2">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="Q2">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="R2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="T2">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="U2">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V2">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="W2">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="X2">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="Y2">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="Z2">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AA2">
-        <v>2.56</v>
+        <v>3.39</v>
       </c>
       <c r="AB2">
-        <v>1.96</v>
+        <v>1.55</v>
       </c>
       <c r="AC2">
         <v>8.300000000000001</v>
       </c>
       <c r="AD2">
-        <v>2.16</v>
+        <v>3.12</v>
       </c>
       <c r="AE2">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AF2">
-        <v>1.81</v>
+        <v>2.09</v>
       </c>
       <c r="AG2">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="AH2">
-        <v>3.18</v>
+        <v>3.98</v>
       </c>
       <c r="AI2">
-        <v>5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>45173</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -795,105 +795,105 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>2.47</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L3">
+        <v>1.5</v>
+      </c>
+      <c r="M3">
+        <v>2.55</v>
+      </c>
+      <c r="N3">
+        <v>2.35</v>
+      </c>
+      <c r="O3">
+        <v>1.53</v>
+      </c>
+      <c r="P3">
+        <v>1.56</v>
+      </c>
+      <c r="Q3">
+        <v>2.31</v>
+      </c>
+      <c r="R3">
+        <v>2.1</v>
+      </c>
+      <c r="S3">
+        <v>1.68</v>
+      </c>
+      <c r="T3">
+        <v>1.44</v>
+      </c>
+      <c r="U3">
         <v>1.3</v>
       </c>
-      <c r="M3">
-        <v>3.4</v>
-      </c>
-      <c r="N3">
-        <v>1.9</v>
-      </c>
-      <c r="O3">
-        <v>1.8</v>
-      </c>
-      <c r="P3">
-        <v>1.4</v>
-      </c>
-      <c r="Q3">
-        <v>2.81</v>
-      </c>
-      <c r="R3">
-        <v>1.83</v>
-      </c>
-      <c r="S3">
-        <v>1.93</v>
-      </c>
-      <c r="T3">
-        <v>2.02</v>
-      </c>
-      <c r="U3">
+      <c r="V3">
+        <v>1.35</v>
+      </c>
+      <c r="W3">
+        <v>0.75</v>
+      </c>
+      <c r="X3">
         <v>1.25</v>
       </c>
-      <c r="V3">
-        <v>1.17</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1.5</v>
-      </c>
       <c r="Y3">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
       <c r="Z3">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="AA3">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45173</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
@@ -902,105 +902,105 @@
         <v>55</v>
       </c>
       <c r="G4">
-        <v>1.71</v>
+        <v>4.1</v>
       </c>
       <c r="H4">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>4.68</v>
+        <v>1.73</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
         <v>8</v>
       </c>
       <c r="L4">
+        <v>1.3</v>
+      </c>
+      <c r="M4">
+        <v>3.4</v>
+      </c>
+      <c r="N4">
+        <v>1.9</v>
+      </c>
+      <c r="O4">
+        <v>1.8</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.81</v>
+      </c>
+      <c r="R4">
+        <v>1.83</v>
+      </c>
+      <c r="S4">
+        <v>1.93</v>
+      </c>
+      <c r="T4">
+        <v>2.02</v>
+      </c>
+      <c r="U4">
+        <v>1.25</v>
+      </c>
+      <c r="V4">
+        <v>1.17</v>
+      </c>
+      <c r="W4">
+        <v>0.33</v>
+      </c>
+      <c r="X4">
         <v>1.33</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>2.03</v>
-      </c>
-      <c r="O4">
-        <v>1.77</v>
-      </c>
-      <c r="P4">
-        <v>1.38</v>
-      </c>
-      <c r="Q4">
-        <v>2.75</v>
-      </c>
-      <c r="R4">
-        <v>2.04</v>
-      </c>
-      <c r="S4">
-        <v>1.74</v>
-      </c>
-      <c r="T4">
-        <v>1.2</v>
-      </c>
-      <c r="U4">
-        <v>1.27</v>
-      </c>
-      <c r="V4">
-        <v>2.05</v>
-      </c>
-      <c r="W4">
-        <v>1.67</v>
-      </c>
-      <c r="X4">
-        <v>0.33</v>
-      </c>
       <c r="Y4">
-        <v>1.42</v>
+        <v>1.82</v>
       </c>
       <c r="Z4">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="AA4">
-        <v>2.46</v>
+        <v>3.6</v>
       </c>
       <c r="AB4">
-        <v>1.67</v>
+        <v>2.19</v>
       </c>
       <c r="AC4">
         <v>8.699999999999999</v>
       </c>
       <c r="AD4">
-        <v>2.69</v>
+        <v>1.83</v>
       </c>
       <c r="AE4">
+        <v>1.2</v>
+      </c>
+      <c r="AF4">
         <v>1.38</v>
       </c>
-      <c r="AF4">
-        <v>1.71</v>
-      </c>
       <c r="AG4">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AH4">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="AI4">
-        <v>5.3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>45173</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
@@ -1009,105 +1009,105 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I5">
-        <v>3.1</v>
+        <v>4.68</v>
       </c>
       <c r="J5">
         <v>1.05</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="O5">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P5">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q5">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R5">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="S5">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="T5">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="U5">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="V5">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="W5">
         <v>2</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y5">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="Z5">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AA5">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="AB5">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AC5">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5">
-        <v>2.33</v>
+        <v>2.69</v>
       </c>
       <c r="AE5">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AF5">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AG5">
-        <v>1.68</v>
+        <v>2.17</v>
       </c>
       <c r="AH5">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="AI5">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>45173</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>
@@ -1116,91 +1116,91 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="I6">
-        <v>3.95</v>
+        <v>2.79</v>
       </c>
       <c r="J6">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="O6">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="P6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q6">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R6">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="S6">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="T6">
+        <v>1.38</v>
+      </c>
+      <c r="U6">
+        <v>1.31</v>
+      </c>
+      <c r="V6">
+        <v>1.57</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1.16</v>
+      </c>
+      <c r="Z6">
+        <v>1.08</v>
+      </c>
+      <c r="AA6">
+        <v>2.24</v>
+      </c>
+      <c r="AB6">
+        <v>1.82</v>
+      </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
+      <c r="AD6">
+        <v>2.33</v>
+      </c>
+      <c r="AE6">
         <v>1.2</v>
       </c>
-      <c r="U6">
-        <v>1.33</v>
-      </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
-      <c r="W6">
-        <v>1.5</v>
-      </c>
-      <c r="X6">
-        <v>0.43</v>
-      </c>
-      <c r="Y6">
-        <v>1.15</v>
-      </c>
-      <c r="Z6">
-        <v>1.13</v>
-      </c>
-      <c r="AA6">
-        <v>2.28</v>
-      </c>
-      <c r="AB6">
-        <v>1.75</v>
-      </c>
-      <c r="AC6">
-        <v>7.5</v>
-      </c>
-      <c r="AD6">
-        <v>2.45</v>
-      </c>
-      <c r="AE6">
-        <v>1.32</v>
-      </c>
       <c r="AF6">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AG6">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="AH6">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="AI6">
-        <v>4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1211,7 +1211,7 @@
         <v>45173</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1223,96 +1223,96 @@
         <v>58</v>
       </c>
       <c r="G7">
-        <v>2.56</v>
+        <v>1.76</v>
       </c>
       <c r="H7">
-        <v>2.81</v>
+        <v>3.14</v>
       </c>
       <c r="I7">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="J7">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L7">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="M7">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="Q7">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="R7">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S7">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T7">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V7">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
-        <v>1.43</v>
+        <v>0.43</v>
       </c>
       <c r="Y7">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="Z7">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AA7">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="AB7">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AC7">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD7">
-        <v>2.77</v>
+        <v>2.45</v>
       </c>
       <c r="AE7">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AF7">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AG7">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AH7">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="AI7">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>45173</v>
@@ -1321,7 +1321,7 @@
         <v>45</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
@@ -1330,91 +1330,91 @@
         <v>59</v>
       </c>
       <c r="G8">
-        <v>1.69</v>
+        <v>2.56</v>
       </c>
       <c r="H8">
-        <v>3.82</v>
+        <v>2.81</v>
       </c>
       <c r="I8">
-        <v>4.31</v>
+        <v>3.15</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W8">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X8">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="Y8">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="Z8">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AA8">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
